--- a/timings.xlsx
+++ b/timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intro-to-excel-power-query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE13FBA7-41D2-400F-8F1C-2D14EB0BE8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C2EB37-5E42-4642-9367-7B2D36364C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Section</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Appending tables</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
   </si>
 </sst>
 </file>
@@ -115,8 +118,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12B1713F-E9D8-4F20-AFE1-9FAA9F5B6127}" name="Table1" displayName="Table1" ref="A1:B8" totalsRowShown="0">
-  <autoFilter ref="A1:B8" xr:uid="{F274D1D1-F943-4FDA-BB1A-05DC543A00DB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12B1713F-E9D8-4F20-AFE1-9FAA9F5B6127}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{F274D1D1-F943-4FDA-BB1A-05DC543A00DB}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -391,11 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B9"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +471,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intro-to-excel-power-query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C2EB37-5E42-4642-9367-7B2D36364C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74310FB5-3439-4CE3-A33F-9931F88B202B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Section</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Add the comma to row part</t>
+  </si>
+  <si>
+    <t>Anti joins</t>
+  </si>
+  <si>
+    <t>Cross joins</t>
   </si>
 </sst>
 </file>
@@ -118,14 +130,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12B1713F-E9D8-4F20-AFE1-9FAA9F5B6127}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{F274D1D1-F943-4FDA-BB1A-05DC543A00DB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12B1713F-E9D8-4F20-AFE1-9FAA9F5B6127}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{F274D1D1-F943-4FDA-BB1A-05DC543A00DB}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="2">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{21B64492-D006-4B5A-B7F1-FF406B4B57CA}" name="Section"/>
     <tableColumn id="2" xr3:uid="{11F3548E-BF7C-4FAE-BA8F-84DCC653545D}" name="Time"/>
+    <tableColumn id="3" xr3:uid="{FC9A726B-285D-4E1A-9A99-3B69B7C1FC39}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -394,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,15 +421,18 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -423,7 +440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -431,23 +448,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -455,7 +475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -463,7 +483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -471,9 +491,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
